--- a/regionseng/7/health care and social protection/health care and social protection.xlsx
+++ b/regionseng/7/health care and social protection/health care and social protection.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A49FB82-25B3-48E9-8F34-55C7AC7CA2C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="14580" yWindow="360" windowWidth="13320" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Number of hospital beds, thsd.</t>
   </si>
@@ -23,15 +24,6 @@
   </si>
   <si>
     <t>Number of visits in medical institutions rendering out-patient services to population (including prophylactics), thsd.</t>
-  </si>
-  <si>
-    <t>Number of registered, unit</t>
-  </si>
-  <si>
-    <t>Number of beneficiaries, unit</t>
-  </si>
-  <si>
-    <t>Number of Receivers, persons</t>
   </si>
   <si>
     <r>
@@ -53,36 +45,6 @@
   <si>
     <r>
       <t xml:space="preserve">Main characteristics of public health 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(end of  year)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Number of Helpless Families Receiving Subsistence Allowance 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(end of  year)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Persons Receiving Pension and Social Package 
 </t>
     </r>
     <r>
@@ -124,16 +86,58 @@
   <si>
     <t>*  In 2012 the health care human resources definitions were revised and classified in accordance with International Standard Classification of Occupations (ISCO-08). Data from 2020 is based on the new system of personalized accounting of health workers.</t>
   </si>
+  <si>
+    <t>Number of registered</t>
+  </si>
+  <si>
+    <t>Number of beneficiaries</t>
+  </si>
+  <si>
+    <t>Persons Receiving Pension</t>
+  </si>
+  <si>
+    <t>Persons Receiving Social Package</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Number of Helpless Families Receiving Subsistence Allowance in Racha-Lechkhumi and Kvemo svaneti region
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(end of  year, unit)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Persons Receiving Pension and Social Package in Racha-Lechkhumi and Kvemo svaneti region
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(end of  year, persons)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +200,12 @@
       <name val="Sylfaen"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -249,65 +259,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -316,33 +307,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_01_IANVARI" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -433,6 +428,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -468,6 +480,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -643,103 +672,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="81.140625" style="5" customWidth="1"/>
-    <col min="2" max="13" width="8.7109375" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="81.140625" style="4" customWidth="1"/>
+    <col min="2" max="13" width="8.7109375" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-    </row>
-    <row r="3" spans="1:15" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="30">
+    <row r="1" spans="1:17" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+    </row>
+    <row r="3" spans="1:17" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="22">
         <v>2008</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="22">
         <v>2009</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="22">
         <v>2010</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="22">
         <v>2011</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="22">
         <v>2012</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="22">
         <v>2013</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="22">
         <v>2014</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="22">
         <v>2015</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="22">
         <v>2016</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="22">
         <v>2017</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="22">
         <v>2018</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="22">
         <v>2019</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="23">
         <v>2020</v>
       </c>
-      <c r="O4" s="30">
+      <c r="O4" s="23">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P4" s="23">
+        <v>2022</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>0.20300000000000001</v>
@@ -768,25 +800,31 @@
       <c r="J5" s="2">
         <v>0.14699999999999999</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>0.155</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>0.161</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="5">
         <v>0.161</v>
       </c>
-      <c r="N5" s="21">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="O5" s="36">
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N5" s="5">
+        <v>0.108</v>
+      </c>
+      <c r="O5" s="30">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="P5" s="30">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="Q5" s="31">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>0.35899999999999999</v>
@@ -815,557 +853,622 @@
       <c r="J6" s="2">
         <v>0.217</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>0.217</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>0.20300000000000001</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="5">
         <v>0.19</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="5">
         <v>0.249</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <v>0.13600000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P6" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q6" s="31">
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="7">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7">
-        <v>4</v>
-      </c>
-      <c r="E7" s="7">
-        <v>4</v>
-      </c>
-      <c r="F7" s="7">
-        <v>4</v>
-      </c>
-      <c r="G7" s="7">
-        <v>4</v>
-      </c>
-      <c r="H7" s="7">
-        <v>4</v>
-      </c>
-      <c r="I7" s="7">
-        <v>4</v>
-      </c>
-      <c r="J7" s="7">
-        <v>4</v>
-      </c>
-      <c r="K7" s="5">
-        <v>4</v>
-      </c>
-      <c r="L7" s="5">
-        <v>4</v>
-      </c>
-      <c r="M7" s="22">
-        <v>4</v>
-      </c>
-      <c r="N7" s="22">
-        <v>4</v>
-      </c>
-      <c r="O7" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6">
+        <v>4</v>
+      </c>
+      <c r="F7" s="6">
+        <v>4</v>
+      </c>
+      <c r="G7" s="6">
+        <v>4</v>
+      </c>
+      <c r="H7" s="6">
+        <v>4</v>
+      </c>
+      <c r="I7" s="6">
+        <v>4</v>
+      </c>
+      <c r="J7" s="6">
+        <v>4</v>
+      </c>
+      <c r="K7" s="4">
+        <v>4</v>
+      </c>
+      <c r="L7" s="4">
+        <v>4</v>
+      </c>
+      <c r="M7" s="4">
+        <v>4</v>
+      </c>
+      <c r="N7" s="4">
+        <v>4</v>
+      </c>
+      <c r="O7" s="4">
+        <v>4</v>
+      </c>
+      <c r="P7" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="2">
         <v>0.215</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="2">
         <v>0.215</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="2">
         <v>0.215</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="2">
         <v>0.13250000000000001</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="2">
         <v>0.11</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="2">
         <v>0.08</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="2">
         <v>0.1</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="2">
         <v>0.1</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="2">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="5">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="5">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="P8" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="Q8" s="31">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>34</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>44</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>53</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>60</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>62</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>62</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>62</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>62</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>62</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>62</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <v>65</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="4">
         <v>63</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="4">
         <v>63</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="4">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="P9" s="4">
+        <v>65</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="10">
         <v>43.063000000000002</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="10">
         <v>40.991999999999997</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="10">
         <v>41</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="10">
         <v>28.431999999999999</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="10">
         <v>41.488999999999997</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="10">
         <v>38.32</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="10">
         <v>41.6</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="10">
         <v>49.8</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="10">
         <v>39.173999999999999</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="12">
         <v>40.936</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="12">
         <v>30.722999999999999</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="12">
         <v>30.114000000000001</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="12">
         <v>29.646999999999998</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O10" s="12">
         <v>36.110999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+      <c r="P10" s="12">
+        <v>41.765000000000001</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>36.036999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+    </row>
+    <row r="13" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" spans="1:17" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-    </row>
-    <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-    </row>
-    <row r="14" spans="1:15" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-    </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="30">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="22">
         <v>2008</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="22">
         <v>2009</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="22">
         <v>2010</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="22">
         <v>2011</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="22">
         <v>2012</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="22">
         <v>2013</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="22">
         <v>2014</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="22">
         <v>2015</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="22">
         <v>2016</v>
       </c>
-      <c r="K15" s="31">
+      <c r="K15" s="22">
         <v>2017</v>
       </c>
-      <c r="L15" s="31">
+      <c r="L15" s="22">
         <v>2018</v>
       </c>
-      <c r="M15" s="31">
+      <c r="M15" s="22">
         <v>2019</v>
       </c>
-      <c r="N15" s="31">
+      <c r="N15" s="22">
         <v>2020</v>
       </c>
-      <c r="O15" s="32">
+      <c r="O15" s="23">
         <v>2021</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="9">
+      <c r="P15" s="23">
+        <v>2022</v>
+      </c>
+      <c r="Q15" s="23">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7">
         <v>13566</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="7">
         <v>13585</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="7">
         <v>13140</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="7">
         <v>12258</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="7">
         <v>12288</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="7">
         <v>11983</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="7">
         <v>11807</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="7">
         <v>11074</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="7">
         <v>9954</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="7">
         <v>9392</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="7">
         <v>9182</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="7">
         <v>8940</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="7">
         <v>9186</v>
       </c>
-      <c r="O16" s="33">
+      <c r="O16" s="24">
         <v>9251</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="13">
+      <c r="P16" s="24">
+        <v>9220</v>
+      </c>
+      <c r="Q16" s="24">
+        <v>8846</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="10">
         <v>7184</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="10">
         <v>8060</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="10">
         <v>7124</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="10">
         <v>6310</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="10">
         <v>7227</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="10">
         <v>6736</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="10">
         <v>6790</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="10">
         <v>5830</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="10">
         <v>5674</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="10">
         <v>5328</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="10">
         <v>5641</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="10">
         <v>5057</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="10">
         <v>5859</v>
       </c>
-      <c r="O17" s="34">
+      <c r="O17" s="25">
         <v>6099</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-    </row>
-    <row r="19" spans="1:15" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="30">
-        <v>2008</v>
-      </c>
-      <c r="C20" s="30">
-        <v>2009</v>
-      </c>
-      <c r="D20" s="30">
-        <v>2010</v>
-      </c>
-      <c r="E20" s="30">
-        <v>2011</v>
-      </c>
-      <c r="F20" s="30">
+      <c r="P17" s="25">
+        <v>4195</v>
+      </c>
+      <c r="Q17" s="25">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+    </row>
+    <row r="19" spans="1:17" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="23">
         <v>2012</v>
       </c>
-      <c r="G20" s="30">
+      <c r="C20" s="23">
         <v>2013</v>
       </c>
-      <c r="H20" s="30">
+      <c r="D20" s="23">
         <v>2014</v>
       </c>
-      <c r="I20" s="30">
+      <c r="E20" s="23">
         <v>2015</v>
       </c>
-      <c r="J20" s="31">
+      <c r="F20" s="23">
         <v>2016</v>
       </c>
-      <c r="K20" s="31">
+      <c r="G20" s="23">
         <v>2017</v>
       </c>
-      <c r="L20" s="31">
+      <c r="H20" s="23">
         <v>2018</v>
       </c>
-      <c r="M20" s="31">
+      <c r="I20" s="23">
         <v>2019</v>
       </c>
-      <c r="N20" s="31">
+      <c r="J20" s="23">
         <v>2020</v>
       </c>
-      <c r="O20" s="32">
+      <c r="K20" s="23">
         <v>2021</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="14">
-        <v>14883</v>
-      </c>
-      <c r="C21" s="14">
-        <v>14327</v>
-      </c>
-      <c r="D21" s="14">
-        <v>13836</v>
-      </c>
-      <c r="E21" s="14">
-        <v>13326</v>
-      </c>
-      <c r="F21" s="14">
-        <v>13132</v>
-      </c>
-      <c r="G21" s="14">
-        <v>12715</v>
-      </c>
-      <c r="H21" s="14">
-        <v>12457</v>
-      </c>
-      <c r="I21" s="14">
-        <v>12213</v>
-      </c>
-      <c r="J21" s="14">
-        <v>12094</v>
-      </c>
-      <c r="K21" s="15">
-        <v>11931</v>
-      </c>
-      <c r="L21" s="15">
-        <v>11917</v>
-      </c>
-      <c r="M21" s="15">
-        <v>11856</v>
-      </c>
-      <c r="N21" s="15">
-        <v>11783</v>
-      </c>
-      <c r="O21" s="35">
-        <v>11640</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
+      <c r="L20" s="23">
+        <v>2022</v>
+      </c>
+      <c r="M20" s="23">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="28">
+        <v>11028</v>
+      </c>
+      <c r="C21" s="28">
+        <v>10693</v>
+      </c>
+      <c r="D21" s="28">
+        <v>10490</v>
+      </c>
+      <c r="E21" s="28">
+        <v>10326</v>
+      </c>
+      <c r="F21" s="28">
+        <v>10231</v>
+      </c>
+      <c r="G21" s="28">
+        <v>10114</v>
+      </c>
+      <c r="H21" s="28">
+        <v>10115</v>
+      </c>
+      <c r="I21" s="28">
+        <v>10049</v>
+      </c>
+      <c r="J21" s="28">
+        <v>10027</v>
+      </c>
+      <c r="K21" s="28">
+        <v>9892</v>
+      </c>
+      <c r="L21" s="28">
+        <v>9812</v>
+      </c>
+      <c r="M21" s="28">
+        <v>9874</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="29">
+        <v>2104</v>
+      </c>
+      <c r="C22" s="29">
+        <v>2022</v>
+      </c>
+      <c r="D22" s="29">
+        <v>1967</v>
+      </c>
+      <c r="E22" s="29">
+        <v>1887</v>
+      </c>
+      <c r="F22" s="29">
+        <v>1863</v>
+      </c>
+      <c r="G22" s="29">
+        <v>1817</v>
+      </c>
+      <c r="H22" s="29">
+        <v>1802</v>
+      </c>
+      <c r="I22" s="29">
+        <v>1807</v>
+      </c>
+      <c r="J22" s="29">
+        <v>1756</v>
+      </c>
+      <c r="K22" s="29">
+        <v>1748</v>
+      </c>
+      <c r="L22" s="29">
+        <v>1683</v>
+      </c>
+      <c r="M22" s="29">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="24" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
